--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Batches" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="70">
   <si>
     <t>SeqNo</t>
   </si>
@@ -200,6 +200,39 @@
   </si>
   <si>
     <t>s1</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>openbrw</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
   </si>
 </sst>
 </file>
@@ -564,10 +597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +636,105 @@
         <v>57</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,10 +743,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +786,132 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -725,10 +983,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,12 +1034,32 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\WorkSpace3\AGsFW\DataBase\DriverDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\WorkSpace\FrameWork\DataBase\DriverDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Batches" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>search</t>
   </si>
   <si>
-    <t>openbrw</t>
-  </si>
-  <si>
     <t>b2</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>b10</t>
+  </si>
+  <si>
+    <t>openbw</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -808,10 +808,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -822,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -836,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
@@ -850,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
@@ -864,10 +864,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -878,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -892,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -906,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -985,8 +985,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
